--- a/TestAccounts.xlsx
+++ b/TestAccounts.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="G1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -488,6 +488,38 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>C10000003406027</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>angeru.robert.alexandru+14859@gmail.com</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Test1234</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>オオオ</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>オオオ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>09348030873</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>C10000003406030</t>
         </is>
       </c>
     </row>
